--- a/Apoyo personal de cada integrante del grupo.xlsx
+++ b/Apoyo personal de cada integrante del grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Integrantes</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Retorepectiva del sprint y apoyo en documentacion</t>
+  </si>
+  <si>
+    <t>%Porcentaje</t>
   </si>
 </sst>
 </file>
@@ -386,72 +389,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D9"/>
+  <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
